--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dlk1</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Dlk1</t>
-  </si>
-  <si>
-    <t>Notch1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H2">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I2">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J2">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>3.839313578928</v>
+        <v>3.1188336970035</v>
       </c>
       <c r="R2">
-        <v>15.357254315712</v>
+        <v>12.475334788014</v>
       </c>
       <c r="S2">
-        <v>0.006204678891518825</v>
+        <v>0.02038664950885366</v>
       </c>
       <c r="T2">
-        <v>0.004948130534392261</v>
+        <v>0.01599332717247888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H3">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I3">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J3">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>0.2414982800653333</v>
+        <v>0.178128739852</v>
       </c>
       <c r="R3">
-        <v>1.448989680392</v>
+        <v>1.068772439112</v>
       </c>
       <c r="S3">
-        <v>0.0003902831195877099</v>
+        <v>0.001164360956567035</v>
       </c>
       <c r="T3">
-        <v>0.0004668666634133635</v>
+        <v>0.001370161809851327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H4">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I4">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J4">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>0.7183617877433333</v>
+        <v>0.5990626916995001</v>
       </c>
       <c r="R4">
-        <v>4.31017072646</v>
+        <v>3.594376150197001</v>
       </c>
       <c r="S4">
-        <v>0.001160937789855996</v>
+        <v>0.003915848780665031</v>
       </c>
       <c r="T4">
-        <v>0.001388743517662559</v>
+        <v>0.004607975234964189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H5">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I5">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J5">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>1.81820799168125</v>
+        <v>0.8510763002962501</v>
       </c>
       <c r="R5">
-        <v>7.272831966725001</v>
+        <v>3.404305201185001</v>
       </c>
       <c r="S5">
-        <v>0.00293838898919151</v>
+        <v>0.005563167493060489</v>
       </c>
       <c r="T5">
-        <v>0.002343317443746301</v>
+        <v>0.004364305070981648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H6">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I6">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J6">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>2.564529598075667</v>
+        <v>1.0666168433375</v>
       </c>
       <c r="R6">
-        <v>15.387177588454</v>
+        <v>6.399701060025001</v>
       </c>
       <c r="S6">
-        <v>0.004144512381376846</v>
+        <v>0.006972075415965048</v>
       </c>
       <c r="T6">
-        <v>0.00495777185806248</v>
+        <v>0.008204390070347256</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H7">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I7">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J7">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>0.6975607426846666</v>
+        <v>0.375682906578</v>
       </c>
       <c r="R7">
-        <v>4.185364456107999</v>
+        <v>2.254097439468</v>
       </c>
       <c r="S7">
-        <v>0.001127321414807757</v>
+        <v>0.002455698663969034</v>
       </c>
       <c r="T7">
-        <v>0.00134853074886179</v>
+        <v>0.002889743517159564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H8">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I8">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J8">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N8">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O8">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P8">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q8">
-        <v>11.324624088256</v>
+        <v>12.47218299592867</v>
       </c>
       <c r="R8">
-        <v>67.94774452953598</v>
+        <v>74.833097975572</v>
       </c>
       <c r="S8">
-        <v>0.01830161944063109</v>
+        <v>0.08152599594924691</v>
       </c>
       <c r="T8">
-        <v>0.02189286590804849</v>
+        <v>0.09593571952901624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -980,13 +980,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H9">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I9">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J9">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P9">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q9">
-        <v>0.7123349482862221</v>
+        <v>0.7123349482862222</v>
       </c>
       <c r="R9">
-        <v>6.411014534575999</v>
+        <v>6.411014534576001</v>
       </c>
       <c r="S9">
-        <v>0.001151197870781047</v>
+        <v>0.004656267160884889</v>
       </c>
       <c r="T9">
-        <v>0.002065638565515763</v>
+        <v>0.008218893897541176</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,13 +1042,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H10">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I10">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J10">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N10">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O10">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P10">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q10">
-        <v>2.118914498208889</v>
+        <v>2.395645373489556</v>
       </c>
       <c r="R10">
-        <v>19.07023048388</v>
+        <v>21.560808361406</v>
       </c>
       <c r="S10">
-        <v>0.003424357971729104</v>
+        <v>0.01565943789300529</v>
       </c>
       <c r="T10">
-        <v>0.006144457063437636</v>
+        <v>0.02764086640451429</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1104,13 +1104,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H11">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I11">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J11">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N11">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O11">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P11">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q11">
-        <v>5.363073788258333</v>
+        <v>3.403445131105001</v>
       </c>
       <c r="R11">
-        <v>32.17844272954999</v>
+        <v>20.42067078663001</v>
       </c>
       <c r="S11">
-        <v>0.008667213563981828</v>
+        <v>0.02224704801577443</v>
       </c>
       <c r="T11">
-        <v>0.01036794284616215</v>
+        <v>0.02617921478835498</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1166,13 +1166,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H12">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I12">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J12">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N12">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O12">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P12">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q12">
-        <v>7.564459913045778</v>
+        <v>4.265389484994445</v>
       </c>
       <c r="R12">
-        <v>68.080139217412</v>
+        <v>38.38850536495001</v>
       </c>
       <c r="S12">
-        <v>0.01222485316276784</v>
+        <v>0.02788125591078413</v>
       </c>
       <c r="T12">
-        <v>0.02193552367643618</v>
+        <v>0.0492139037866931</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1228,13 +1228,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H13">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I13">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J13">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N13">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O13">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P13">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q13">
-        <v>2.057558734713778</v>
+        <v>1.502351973362667</v>
       </c>
       <c r="R13">
-        <v>18.51802861242399</v>
+        <v>13.521167760264</v>
       </c>
       <c r="S13">
-        <v>0.003325201494196098</v>
+        <v>0.009820313006527377</v>
       </c>
       <c r="T13">
-        <v>0.005966536786470905</v>
+        <v>0.01733408068147734</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H14">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I14">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J14">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N14">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O14">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P14">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q14">
-        <v>220.668992398464</v>
+        <v>61.49754555864299</v>
       </c>
       <c r="R14">
-        <v>882.6759695938559</v>
+        <v>245.990182234572</v>
       </c>
       <c r="S14">
-        <v>0.3566211019235828</v>
+        <v>0.4019864567204616</v>
       </c>
       <c r="T14">
-        <v>0.2843995304976599</v>
+        <v>0.3153583877744987</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H15">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I15">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J15">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P15">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q15">
-        <v>13.88039320894933</v>
+        <v>3.512364351096</v>
       </c>
       <c r="R15">
-        <v>83.282359253696</v>
+        <v>21.074186106576</v>
       </c>
       <c r="S15">
-        <v>0.02243197409616024</v>
+        <v>0.02295901222369857</v>
       </c>
       <c r="T15">
-        <v>0.0268337019318504</v>
+        <v>0.0270170187031778</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H16">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I16">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J16">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N16">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O16">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P16">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q16">
-        <v>41.28867533741333</v>
+        <v>11.812391667651</v>
       </c>
       <c r="R16">
-        <v>247.73205202448</v>
+        <v>70.874350005906</v>
       </c>
       <c r="S16">
-        <v>0.0667262433917557</v>
+        <v>0.07721318678231343</v>
       </c>
       <c r="T16">
-        <v>0.0798196413089191</v>
+        <v>0.09086062114102868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H17">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I17">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J17">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N17">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O17">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P17">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q17">
-        <v>104.50360910795</v>
+        <v>16.7816269272825</v>
       </c>
       <c r="R17">
-        <v>418.0144364318</v>
+        <v>67.12650770913001</v>
       </c>
       <c r="S17">
-        <v>0.1688873086789329</v>
+        <v>0.1096952193005837</v>
       </c>
       <c r="T17">
-        <v>0.1346848827403212</v>
+        <v>0.08605590294614845</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H18">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I18">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J18">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N18">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O18">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P18">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q18">
-        <v>147.3993073890587</v>
+        <v>21.031681804575</v>
       </c>
       <c r="R18">
-        <v>884.3958443343521</v>
+        <v>126.19009082745</v>
       </c>
       <c r="S18">
-        <v>0.2382106468721289</v>
+        <v>0.137476238615593</v>
       </c>
       <c r="T18">
-        <v>0.2849536767365531</v>
+        <v>0.1617751701916065</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H19">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I19">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J19">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N19">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O19">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P19">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q19">
-        <v>40.09311119305066</v>
+        <v>7.407761653043999</v>
       </c>
       <c r="R19">
-        <v>240.558667158304</v>
+        <v>44.446569918264</v>
       </c>
       <c r="S19">
-        <v>0.06479410332101548</v>
+        <v>0.04842176760204632</v>
       </c>
       <c r="T19">
-        <v>0.07750836587116339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H20">
-        <v>0.207235</v>
-      </c>
-      <c r="I20">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J20">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>67.073376</v>
-      </c>
-      <c r="N20">
-        <v>134.146752</v>
-      </c>
-      <c r="O20">
-        <v>0.3886152607163267</v>
-      </c>
-      <c r="P20">
-        <v>0.3201976973989085</v>
-      </c>
-      <c r="Q20">
-        <v>4.63331702512</v>
-      </c>
-      <c r="R20">
-        <v>27.79990215072</v>
-      </c>
-      <c r="S20">
-        <v>0.007487860460594066</v>
-      </c>
-      <c r="T20">
-        <v>0.008957170458807839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H21">
-        <v>0.207235</v>
-      </c>
-      <c r="I21">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J21">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.219010666666667</v>
-      </c>
-      <c r="N21">
-        <v>12.657032</v>
-      </c>
-      <c r="O21">
-        <v>0.02444445215030819</v>
-      </c>
-      <c r="P21">
-        <v>0.03021133528677833</v>
-      </c>
-      <c r="Q21">
-        <v>0.2914422251688889</v>
-      </c>
-      <c r="R21">
-        <v>2.62298002652</v>
-      </c>
-      <c r="S21">
-        <v>0.0004709970637791952</v>
-      </c>
-      <c r="T21">
-        <v>0.000845128125998798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.207235</v>
-      </c>
-      <c r="I22">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J22">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>12.54988666666667</v>
-      </c>
-      <c r="N22">
-        <v>37.64966</v>
-      </c>
-      <c r="O22">
-        <v>0.07271256897710082</v>
-      </c>
-      <c r="P22">
-        <v>0.0898667635266472</v>
-      </c>
-      <c r="Q22">
-        <v>0.8669252544555556</v>
-      </c>
-      <c r="R22">
-        <v>7.802327290099999</v>
-      </c>
-      <c r="S22">
-        <v>0.001401029823760026</v>
-      </c>
-      <c r="T22">
-        <v>0.002513921636627916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.207235</v>
-      </c>
-      <c r="I23">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J23">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>31.7643625</v>
-      </c>
-      <c r="N23">
-        <v>63.528725</v>
-      </c>
-      <c r="O23">
-        <v>0.1840389846252172</v>
-      </c>
-      <c r="P23">
-        <v>0.1516380468435678</v>
-      </c>
-      <c r="Q23">
-        <v>2.194229220895834</v>
-      </c>
-      <c r="R23">
-        <v>13.165375325375</v>
-      </c>
-      <c r="S23">
-        <v>0.003546073393110955</v>
-      </c>
-      <c r="T23">
-        <v>0.004241903813338149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.207235</v>
-      </c>
-      <c r="I24">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J24">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>44.80271133333334</v>
-      </c>
-      <c r="N24">
-        <v>134.408134</v>
-      </c>
-      <c r="O24">
-        <v>0.2595816460111038</v>
-      </c>
-      <c r="P24">
-        <v>0.3208215955797718</v>
-      </c>
-      <c r="Q24">
-        <v>3.094896627721112</v>
-      </c>
-      <c r="R24">
-        <v>27.85406964949</v>
-      </c>
-      <c r="S24">
-        <v>0.005001633594830181</v>
-      </c>
-      <c r="T24">
-        <v>0.008974623308720033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.207235</v>
-      </c>
-      <c r="I25">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J25">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>12.18648933333333</v>
-      </c>
-      <c r="N25">
-        <v>36.559468</v>
-      </c>
-      <c r="O25">
-        <v>0.07060708751994335</v>
-      </c>
-      <c r="P25">
-        <v>0.08726456136432641</v>
-      </c>
-      <c r="Q25">
-        <v>0.8418223723311111</v>
-      </c>
-      <c r="R25">
-        <v>7.576401350979999</v>
-      </c>
-      <c r="S25">
-        <v>0.001360461289924008</v>
-      </c>
-      <c r="T25">
-        <v>0.002441127957830321</v>
+        <v>0.0569803172801599</v>
       </c>
     </row>
   </sheetData>
